--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/RptPlansForReceivingAndPlayingExpenses.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/RptPlansForReceivingAndPlayingExpenses.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sanun\jobWork\BallWork\BudgetSystem\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25638690-6531-4271-B937-D9B1EC0E7873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96261703-187B-4F90-8DB6-372A1423109E}"/>
+    <workbookView xWindow="-120" yWindow="336" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,12 +47,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -445,24 +444,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784D7832-9298-4F4F-9620-6432EF6F73C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="57.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="57.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="11" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -471,7 +473,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -482,280 +484,280 @@
       <c r="D2" s="12"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -767,7 +769,7 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.11811023622047245" top="0.39370078740157483" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>